--- a/Analisi_vendite/Test vari/Dati_destagionalizzati.xlsx
+++ b/Analisi_vendite/Test vari/Dati_destagionalizzati.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marzio\Documents\GitHub\Advanced_Microeconomics_Project\Analisi_vendite\Test vari\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E449913A-230A-4927-86B9-F4727920DD7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0456A535-106E-4E93-B3F7-B2FF81BF4CD8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{47DF581E-DE23-43B3-BC9A-AC2D7BDCE23F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{47DF581E-DE23-43B3-BC9A-AC2D7BDCE23F}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>T1</t>
   </si>
@@ -77,6 +77,24 @@
   <si>
     <t xml:space="preserve">Alimentari </t>
   </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>T7</t>
+  </si>
+  <si>
+    <t>T8</t>
+  </si>
+  <si>
+    <t>T9</t>
+  </si>
 </sst>
 </file>
 
@@ -85,7 +103,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,8 +132,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,6 +168,18 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -147,20 +190,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="5"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
+    <cellStyle name="20% - Colore 2" xfId="5" builtinId="34"/>
+    <cellStyle name="40% - Colore 1" xfId="4" builtinId="31"/>
     <cellStyle name="Neutrale" xfId="3" builtinId="28"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Valore non valido" xfId="2" builtinId="27"/>
@@ -476,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4BD8110-2A2D-4FD7-B7EA-BF53B9AE2DA2}">
-  <dimension ref="A1:S37"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,7 +542,7 @@
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -536,8 +585,26 @@
       <c r="N1" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-19</v>
       </c>
@@ -580,12 +647,26 @@
       <c r="N2">
         <v>0</v>
       </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-18</v>
       </c>
@@ -628,12 +709,26 @@
       <c r="N3">
         <v>0</v>
       </c>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-17</v>
       </c>
@@ -676,12 +771,26 @@
       <c r="N4">
         <v>0</v>
       </c>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-16</v>
       </c>
@@ -724,12 +833,26 @@
       <c r="N5">
         <v>0</v>
       </c>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-15</v>
       </c>
@@ -772,12 +895,26 @@
       <c r="N6">
         <v>0</v>
       </c>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-14</v>
       </c>
@@ -820,12 +957,26 @@
       <c r="N7">
         <v>0</v>
       </c>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-13</v>
       </c>
@@ -868,12 +1019,26 @@
       <c r="N8">
         <v>0</v>
       </c>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-12</v>
       </c>
@@ -916,12 +1081,26 @@
       <c r="N9">
         <v>0</v>
       </c>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-11</v>
       </c>
@@ -964,12 +1143,26 @@
       <c r="N10">
         <v>0</v>
       </c>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-10</v>
       </c>
@@ -1012,12 +1205,26 @@
       <c r="N11">
         <v>0</v>
       </c>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-9</v>
       </c>
@@ -1060,12 +1267,26 @@
       <c r="N12">
         <v>0</v>
       </c>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-8</v>
       </c>
@@ -1108,12 +1329,26 @@
       <c r="N13">
         <v>0</v>
       </c>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-7</v>
       </c>
@@ -1156,12 +1391,26 @@
       <c r="N14">
         <v>0</v>
       </c>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-6</v>
       </c>
@@ -1204,12 +1453,26 @@
       <c r="N15">
         <v>0</v>
       </c>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-5</v>
       </c>
@@ -1252,12 +1515,26 @@
       <c r="N16">
         <v>0</v>
       </c>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-4</v>
       </c>
@@ -1300,12 +1577,26 @@
       <c r="N17">
         <v>0</v>
       </c>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-3</v>
       </c>
@@ -1348,12 +1639,26 @@
       <c r="N18">
         <v>0</v>
       </c>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-2</v>
       </c>
@@ -1396,12 +1701,26 @@
       <c r="N19">
         <v>0</v>
       </c>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-1</v>
       </c>
@@ -1444,12 +1763,26 @@
       <c r="N20">
         <v>0</v>
       </c>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -1492,12 +1825,26 @@
       <c r="N21">
         <v>0</v>
       </c>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1540,12 +1887,26 @@
       <c r="N22">
         <v>0</v>
       </c>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1588,12 +1949,26 @@
       <c r="N23">
         <v>0</v>
       </c>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
@@ -1636,12 +2011,26 @@
       <c r="N24">
         <v>0</v>
       </c>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>4</v>
       </c>
@@ -1684,48 +2073,62 @@
       <c r="N25">
         <v>1</v>
       </c>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="R32" s="1"/>
@@ -1762,6 +2165,7 @@
       <c r="S37" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
